--- a/layout/layout_file.xlsx
+++ b/layout/layout_file.xlsx
@@ -582,10 +582,10 @@
   <dimension ref="A1:G4001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D686" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="E699" sqref="E699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/layout/layout_file.xlsx
+++ b/layout/layout_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisabanaedu-my.sharepoint.com/personal/miguelurla_unisabana_edu_co/Documents/GitHub/BRT_C_MEGABUS/layout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="349" documentId="8_{B7FF834D-D2E2-4D46-8DE3-AE5A8C7A8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{672A6FE9-4625-4ECB-B12E-CE9CB14A1064}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="8_{B7FF834D-D2E2-4D46-8DE3-AE5A8C7A8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5457D5-A583-4084-B914-FBD20064831C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58A8D44C-72FA-46B3-816C-1DB13D289BDA}"/>
   </bookViews>
@@ -582,10 +582,10 @@
   <dimension ref="A1:G4001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D686" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D674" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E699" sqref="E699"/>
+      <selection pane="bottomRight" activeCell="E677" sqref="E677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7284,7 +7284,7 @@
         <v>25</v>
       </c>
       <c r="E694" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="695" spans="2:5" x14ac:dyDescent="0.25">

--- a/layout/layout_file.xlsx
+++ b/layout/layout_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisabanaedu-my.sharepoint.com/personal/miguelurla_unisabana_edu_co/Documents/GitHub/BRT_C_MEGABUS/layout/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="350" documentId="8_{B7FF834D-D2E2-4D46-8DE3-AE5A8C7A8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C5457D5-A583-4084-B914-FBD20064831C}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="8_{B7FF834D-D2E2-4D46-8DE3-AE5A8C7A8F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6E85883-ABF3-46A9-A943-01DADC509B40}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58A8D44C-72FA-46B3-816C-1DB13D289BDA}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" xr2:uid="{58A8D44C-72FA-46B3-816C-1DB13D289BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -582,13 +582,13 @@
   <dimension ref="A1:G4001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D674" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C745" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E677" sqref="E677"/>
+      <selection pane="bottomRight" activeCell="D751" sqref="D751"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="26.42578125" style="1"/>
     <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
